--- a/Master_Thesis/LacI_TetR_Tup1/TetR_Tup1 model/parameters_0_LacI_TetR_model.xlsx
+++ b/Master_Thesis/LacI_TetR_Tup1/TetR_Tup1 model/parameters_0_LacI_TetR_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudiobroger/Documents/ETH/Master/Master_Thesis/LacI_TetR_Tup1/TetR_Tup1 model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD4D0F3-004C-7F40-9DA3-AE6B4396C245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FFFC07-A75D-5848-B11E-712E9EDD992D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48960" yWindow="780" windowWidth="24480" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>names</t>
   </si>
@@ -137,12 +137,6 @@
     <t>LacIrep2</t>
   </si>
   <si>
-    <t>kTetRTup1</t>
-  </si>
-  <si>
-    <t>k_{TetRTup1}</t>
-  </si>
-  <si>
     <t>TetRTup1L</t>
   </si>
   <si>
@@ -188,22 +182,16 @@
     <t>theta_{TetRTup1}</t>
   </si>
   <si>
-    <t>kTetR</t>
-  </si>
-  <si>
-    <t>k_{TetR}</t>
-  </si>
-  <si>
-    <t>dTetR</t>
-  </si>
-  <si>
-    <t>d_{TetR}</t>
-  </si>
-  <si>
     <t>aTc</t>
   </si>
   <si>
     <t>aTcAdded</t>
+  </si>
+  <si>
+    <t>kLacTetRTup1</t>
+  </si>
+  <si>
+    <t>k_{LacTetRTup1}</t>
   </si>
 </sst>
 </file>
@@ -571,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>0.9</v>
@@ -906,8 +894,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
+      <c r="A15" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B15" s="1">
         <v>0.01</v>
@@ -925,12 +913,12 @@
         <v>6</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
         <v>9.9999999999999995E-7</v>
@@ -948,12 +936,12 @@
         <v>6</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1">
         <v>9.9999999999999995E-7</v>
@@ -976,7 +964,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2">
         <v>9.9999999999999995E-7</v>
@@ -985,7 +973,7 @@
         <v>1E-4</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
         <v>0.6</v>
@@ -994,12 +982,12 @@
         <v>6</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2">
         <v>9.9999999999999995E-7</v>
@@ -1008,7 +996,7 @@
         <v>1E-4</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
         <v>0.6</v>
@@ -1017,12 +1005,12 @@
         <v>6</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1">
         <v>9.9999999999999995E-7</v>
@@ -1040,12 +1028,12 @@
         <v>6</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1">
         <v>0.5</v>
@@ -1063,12 +1051,12 @@
         <v>6</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2">
         <v>0.01</v>
@@ -1086,12 +1074,12 @@
         <v>6</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1">
         <v>1E-3</v>
@@ -1109,76 +1097,30 @@
         <v>6</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>250</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
